--- a/parameter_files/v3/de_dg_sw_lower.xlsx
+++ b/parameter_files/v3/de_dg_sw_lower.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{E6F9DBFA-0F9F-4EE0-BB3F-AF4FDD6EC64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FF0B229-A0A7-4BC1-8771-47892E486117}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{E6F9DBFA-0F9F-4EE0-BB3F-AF4FDD6EC64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54E7C830-C669-47F8-8D5C-3DBED771B31F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C4499E3F-FF19-49A3-9D2B-735605059EA7}"/>
+    <workbookView xWindow="20" yWindow="740" windowWidth="19180" windowHeight="10060" xr2:uid="{C4499E3F-FF19-49A3-9D2B-735605059EA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,15 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>other dischargers</t>
   </si>
   <si>
     <t>Bureau of Reclamation</t>
-  </si>
-  <si>
-    <t>Legislature</t>
   </si>
   <si>
     <t>Friant Water Authority</t>
@@ -667,7 +664,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -675,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA545B6-1FC0-43B8-8D79-1AA3D82BF6E7}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -689,22 +686,22 @@
     <row r="1" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>34</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>0</v>
@@ -712,7 +709,7 @@
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -723,7 +720,7 @@
     </row>
     <row r="3" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -734,7 +731,7 @@
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -745,7 +742,7 @@
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -756,7 +753,7 @@
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -767,7 +764,7 @@
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -778,7 +775,7 @@
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -789,7 +786,7 @@
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -800,7 +797,7 @@
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -830,8 +827,12 @@
         <v>3</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -856,25 +857,29 @@
         <v>5</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
-        <v>6</v>
+      <c r="A16" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -882,18 +887,10 @@
         <v>24</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="3">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -911,7 +908,7 @@
       <c r="A19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="4"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -919,29 +916,29 @@
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="A20" s="13" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="13" t="s">
-        <v>35</v>
-      </c>
+      <c r="A21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="4"/>
+      <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
@@ -960,7 +957,7 @@
       <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="4"/>
+      <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -990,7 +987,7 @@
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="3"/>
@@ -1011,8 +1008,8 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B29" s="3"/>
@@ -1022,19 +1019,8 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="12"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/parameter_files/v3/de_dg_sw_lower.xlsx
+++ b/parameter_files/v3/de_dg_sw_lower.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{E6F9DBFA-0F9F-4EE0-BB3F-AF4FDD6EC64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54E7C830-C669-47F8-8D5C-3DBED771B31F}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{E6F9DBFA-0F9F-4EE0-BB3F-AF4FDD6EC64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25498BFC-9152-483D-BC64-6046F5CFD4CC}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="740" windowWidth="19180" windowHeight="10060" xr2:uid="{C4499E3F-FF19-49A3-9D2B-735605059EA7}"/>
+    <workbookView xWindow="20" yWindow="520" windowWidth="19180" windowHeight="10060" xr2:uid="{C4499E3F-FF19-49A3-9D2B-735605059EA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -373,6 +373,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -674,16 +678,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA545B6-1FC0-43B8-8D79-1AA3D82BF6E7}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.08984375" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="7" t="s">
         <v>28</v>
@@ -707,7 +711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
@@ -718,7 +722,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
@@ -729,7 +733,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -740,7 +744,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
@@ -751,7 +755,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
@@ -762,7 +766,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
@@ -773,7 +777,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
@@ -784,7 +788,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>22</v>
       </c>
@@ -795,12 +799,12 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -811,7 +815,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
@@ -822,7 +826,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
@@ -837,7 +841,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -852,7 +856,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -863,26 +867,22 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
@@ -893,7 +893,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>25</v>
       </c>
@@ -904,7 +904,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>26</v>
       </c>
@@ -915,12 +915,12 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>6</v>
       </c>
@@ -931,7 +931,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
@@ -942,7 +942,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
@@ -953,7 +953,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
@@ -964,7 +964,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
@@ -975,7 +975,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>11</v>
       </c>
@@ -986,7 +986,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>12</v>
       </c>
@@ -997,7 +997,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>13</v>
       </c>
@@ -1008,7 +1008,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
@@ -1019,7 +1019,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
     </row>
   </sheetData>
